--- a/data/trans_orig/P16A02-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>97013</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79309</v>
+        <v>80183</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115610</v>
+        <v>115875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1660780838869214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1357703382711793</v>
+        <v>0.1372667634378082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1979139275999646</v>
+        <v>0.1983673491110161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>234</v>
@@ -765,19 +765,19 @@
         <v>244522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>218447</v>
+        <v>218122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273134</v>
+        <v>271439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2651121657950524</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2368422698879644</v>
+        <v>0.2364892578791705</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2961338884643989</v>
+        <v>0.2942963310111438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>334</v>
@@ -786,19 +786,19 @@
         <v>341535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308282</v>
+        <v>309960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>375027</v>
+        <v>375501</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.226711312405979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2046378346750554</v>
+        <v>0.2057517259560064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2489437798647542</v>
+        <v>0.249258298196067</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>487128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>468531</v>
+        <v>468266</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>504832</v>
+        <v>503958</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8339219161130785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8020860724000356</v>
+        <v>0.8016326508889837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8642296617288207</v>
+        <v>0.8627332365621917</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -836,19 +836,19 @@
         <v>677811</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>649199</v>
+        <v>650894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>703886</v>
+        <v>704211</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7348878342049476</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7038661115356011</v>
+        <v>0.7057036689888561</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7631577301120356</v>
+        <v>0.7635107421208294</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1125</v>
@@ -857,19 +857,19 @@
         <v>1164939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1131447</v>
+        <v>1130973</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1198192</v>
+        <v>1196514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7732886875940209</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7510562201352459</v>
+        <v>0.750741701803933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7953621653249446</v>
+        <v>0.7942482740439936</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>150645</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>130120</v>
+        <v>130066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173252</v>
+        <v>173939</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1397584241131753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1207164515004528</v>
+        <v>0.1206664709980991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1607317193736975</v>
+        <v>0.1613697259229101</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>243</v>
@@ -982,19 +982,19 @@
         <v>254342</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>228742</v>
+        <v>227200</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>284117</v>
+        <v>284290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2405041343391652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2162962475820741</v>
+        <v>0.2148381516506693</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2686586015714797</v>
+        <v>0.2688222087688764</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>395</v>
@@ -1003,19 +1003,19 @@
         <v>404987</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>367309</v>
+        <v>371843</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443245</v>
+        <v>440215</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.189651099429337</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1720070245677693</v>
+        <v>0.1741303278820576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2075669312009664</v>
+        <v>0.2061481850554107</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>927249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904642</v>
+        <v>903955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947774</v>
+        <v>947828</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8602415758868247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8392682806263024</v>
+        <v>0.8386302740770899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8792835484995472</v>
+        <v>0.8793335290019009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>785</v>
@@ -1053,19 +1053,19 @@
         <v>803196</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>773421</v>
+        <v>773248</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>828796</v>
+        <v>830338</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7594958656608347</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7313413984285202</v>
+        <v>0.7311777912311233</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.783703752417926</v>
+        <v>0.7851618483493307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1688</v>
@@ -1074,19 +1074,19 @@
         <v>1730445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1692187</v>
+        <v>1695217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1768123</v>
+        <v>1763589</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.810348900570663</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7924330687990335</v>
+        <v>0.7938518149445892</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8279929754322307</v>
+        <v>0.8258696721179425</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>147172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121724</v>
+        <v>127735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170131</v>
+        <v>172557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1313356292993577</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1086264385714087</v>
+        <v>0.113990101139337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1518244757119118</v>
+        <v>0.1539894192202962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -1199,19 +1199,19 @@
         <v>206022</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>183748</v>
+        <v>181030</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>234945</v>
+        <v>231067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2072785658241126</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1848682919536183</v>
+        <v>0.1821336043499671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2363776656342536</v>
+        <v>0.2324760264427538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>356</v>
@@ -1220,19 +1220,19 @@
         <v>353194</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>317365</v>
+        <v>323057</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>388773</v>
+        <v>390336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.167033019449345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1500887374376181</v>
+        <v>0.1527805875506971</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1838589595152321</v>
+        <v>0.1845980584156397</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>973404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>950445</v>
+        <v>948019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>998852</v>
+        <v>992841</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8686643707006423</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8481755242880881</v>
+        <v>0.8460105807797038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8913735614285908</v>
+        <v>0.8860098988606632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>777</v>
@@ -1270,19 +1270,19 @@
         <v>787918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>758995</v>
+        <v>762873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>810192</v>
+        <v>812910</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7927214341758874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7636223343657457</v>
+        <v>0.7675239735572461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8151317080463817</v>
+        <v>0.8178663956500327</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1728</v>
@@ -1291,19 +1291,19 @@
         <v>1761322</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1725743</v>
+        <v>1724180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1797151</v>
+        <v>1791459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.832966980550655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8161410404847679</v>
+        <v>0.8154019415843604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8499112625623819</v>
+        <v>0.8472194124493029</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>53575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41397</v>
+        <v>41048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68697</v>
+        <v>67389</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1197999015776858</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09256959504101793</v>
+        <v>0.09178900778323322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1536156129411624</v>
+        <v>0.1506905822971651</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -1416,19 +1416,19 @@
         <v>80392</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65758</v>
+        <v>65673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97975</v>
+        <v>96414</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2356435750688182</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1927483449951894</v>
+        <v>0.1925016219625501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2871825531560159</v>
+        <v>0.2826086732778498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -1437,19 +1437,19 @@
         <v>133966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111382</v>
+        <v>114702</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155314</v>
+        <v>156445</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1699307092883597</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1412837917651882</v>
+        <v>0.1454950540921402</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1970095759019888</v>
+        <v>0.1984445431573655</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>393625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>378503</v>
+        <v>379811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>405803</v>
+        <v>406152</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8802000984223142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8463843870588377</v>
+        <v>0.8493094177028353</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.907430404958983</v>
+        <v>0.9082109922167669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>259</v>
@@ -1487,19 +1487,19 @@
         <v>260766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>243183</v>
+        <v>244744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>275400</v>
+        <v>275485</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7643564249311818</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7128174468439843</v>
+        <v>0.7173913267221502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8072516550048106</v>
+        <v>0.8074983780374498</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>641</v>
@@ -1508,19 +1508,19 @@
         <v>654392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>633044</v>
+        <v>631913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>676976</v>
+        <v>673656</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8300692907116403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8029904240980115</v>
+        <v>0.8015554568426345</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8587162082348122</v>
+        <v>0.85450494590786</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>448404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>408262</v>
+        <v>413829</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>489897</v>
+        <v>493508</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1388328517775137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1264043600849636</v>
+        <v>0.128127902037526</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1516797871422188</v>
+        <v>0.1527977200309608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>762</v>
@@ -1633,19 +1633,19 @@
         <v>785278</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>738610</v>
+        <v>740521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>835041</v>
+        <v>834993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2368885259156712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2228104965004698</v>
+        <v>0.2233868890439049</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2519001525039595</v>
+        <v>0.2518856853215965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1219</v>
@@ -1654,19 +1654,19 @@
         <v>1233682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1170457</v>
+        <v>1168839</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1296187</v>
+        <v>1297775</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1884986167268513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1788381866956655</v>
+        <v>0.1785909983393265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1980489925534786</v>
+        <v>0.1982916389637255</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2781407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2739914</v>
+        <v>2736303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2821549</v>
+        <v>2815982</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8611671482224863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8483202128577811</v>
+        <v>0.8472022799690392</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8735956399150364</v>
+        <v>0.871872097962474</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2472</v>
@@ -1704,19 +1704,19 @@
         <v>2529691</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2479928</v>
+        <v>2479976</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2576359</v>
+        <v>2574448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7631114740843289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7480998474960407</v>
+        <v>0.7481143146784036</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7771895034995302</v>
+        <v>0.7766131109560953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5182</v>
@@ -1725,19 +1725,19 @@
         <v>5311098</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5248593</v>
+        <v>5247005</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5374323</v>
+        <v>5375941</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8115013832731487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8019510074465199</v>
+        <v>0.8017083610362745</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8211618133043345</v>
+        <v>0.8214090016606735</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>209496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182802</v>
+        <v>183393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>236352</v>
+        <v>236788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2010892078648381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1754658911242306</v>
+        <v>0.1760335834904994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2268674293526768</v>
+        <v>0.2272857900849714</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>366</v>
@@ -2090,19 +2090,19 @@
         <v>397984</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>367123</v>
+        <v>366397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>435225</v>
+        <v>428472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3561059620440674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3284916992087756</v>
+        <v>0.327842432066788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3894279000918984</v>
+        <v>0.3833856587826522</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>557</v>
@@ -2111,19 +2111,19 @@
         <v>607481</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>567170</v>
+        <v>566454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>650970</v>
+        <v>649220</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2813180196336134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2626507698751697</v>
+        <v>0.262318961816742</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3014576712606737</v>
+        <v>0.3006469645116775</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>832312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>805456</v>
+        <v>805020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>859006</v>
+        <v>858415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7989107921351619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7731325706473232</v>
+        <v>0.7727142099150287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8245341088757694</v>
+        <v>0.8239664165095005</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>663</v>
@@ -2161,19 +2161,19 @@
         <v>719617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>682376</v>
+        <v>689129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>750478</v>
+        <v>751204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6438940379559326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6105720999081011</v>
+        <v>0.6166143412173478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6715083007912243</v>
+        <v>0.672157567933212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1448</v>
@@ -2182,19 +2182,19 @@
         <v>1551928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1508439</v>
+        <v>1510189</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1592239</v>
+        <v>1592955</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7186819803663865</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6985423287393263</v>
+        <v>0.6993530354883224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7373492301248299</v>
+        <v>0.7376810381832574</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>157528</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>134052</v>
+        <v>135958</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180177</v>
+        <v>182669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1616449625210469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1375559807413725</v>
+        <v>0.1395119016222463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1848865593605577</v>
+        <v>0.1874434709004262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>375</v>
@@ -2307,19 +2307,19 @@
         <v>401132</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>366311</v>
+        <v>371180</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>434448</v>
+        <v>435762</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3672772854827124</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3353956382288151</v>
+        <v>0.3398530892418064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3977817998575399</v>
+        <v>0.3989846511854184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>523</v>
@@ -2328,19 +2328,19 @@
         <v>558660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>519233</v>
+        <v>517430</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>600327</v>
+        <v>606746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2703139568684021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2512368180027811</v>
+        <v>0.2503642986549509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2904749611095439</v>
+        <v>0.2935809557395179</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>817001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>794352</v>
+        <v>791860</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>840477</v>
+        <v>838571</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8383550374789531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8151134406394422</v>
+        <v>0.8125565290995738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8624440192586275</v>
+        <v>0.8604880983777536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>643</v>
@@ -2378,19 +2378,19 @@
         <v>691045</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>657729</v>
+        <v>656415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>725866</v>
+        <v>720997</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6327227145172877</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.60221820014246</v>
+        <v>0.6010153488145816</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6646043617711848</v>
+        <v>0.6601469107581934</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1416</v>
@@ -2399,19 +2399,19 @@
         <v>1508047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1466380</v>
+        <v>1459961</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1547474</v>
+        <v>1549277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7296860431315979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7095250388904564</v>
+        <v>0.7064190442604821</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7487631819972194</v>
+        <v>0.7496357013450491</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>164351</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140022</v>
+        <v>140754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>188813</v>
+        <v>187056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1858785551792519</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1583630547078721</v>
+        <v>0.1591909567101032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2135445643180318</v>
+        <v>0.2115571094580709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>242</v>
@@ -2524,19 +2524,19 @@
         <v>262074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>234915</v>
+        <v>235425</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>290996</v>
+        <v>288706</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2995946482072814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2685476805865998</v>
+        <v>0.2691301737689389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3326573427523765</v>
+        <v>0.3300398580689263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>397</v>
@@ -2545,19 +2545,19 @@
         <v>426425</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>390552</v>
+        <v>391065</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464991</v>
+        <v>466115</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2424319812563437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2220375485623986</v>
+        <v>0.2223290127037599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2643577051905641</v>
+        <v>0.2649968907406517</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>719834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>695372</v>
+        <v>697129</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>744163</v>
+        <v>743431</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8141214448207481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.786455435681968</v>
+        <v>0.7884428905419288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8416369452921278</v>
+        <v>0.8408090432898967</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>578</v>
@@ -2595,19 +2595,19 @@
         <v>612688</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583766</v>
+        <v>586056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>639847</v>
+        <v>639337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7004053517927187</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6673426572476235</v>
+        <v>0.669960141931074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7314523194134001</v>
+        <v>0.7308698262310611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1252</v>
@@ -2616,19 +2616,19 @@
         <v>1332522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1293956</v>
+        <v>1292832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1368395</v>
+        <v>1367882</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7575680187436563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7356422948094355</v>
+        <v>0.735003109259348</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7779624514376011</v>
+        <v>0.77767098729624</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>76939</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60703</v>
+        <v>61080</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95664</v>
+        <v>94930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1529541092632107</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1206761830637245</v>
+        <v>0.1214267566411704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1901787173823917</v>
+        <v>0.1887195977440512</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -2741,19 +2741,19 @@
         <v>122667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102497</v>
+        <v>103593</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142788</v>
+        <v>144535</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.272068804933963</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2273321725302863</v>
+        <v>0.229764051204931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3166966440887813</v>
+        <v>0.3205694982243001</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -2762,19 +2762,19 @@
         <v>199607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174675</v>
+        <v>173171</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225217</v>
+        <v>225600</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2092551287603519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1831179036993507</v>
+        <v>0.1815412282525836</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2361035307238117</v>
+        <v>0.23650550040031</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>426084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>407359</v>
+        <v>408093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>442320</v>
+        <v>441943</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8470458907367893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8098212826176082</v>
+        <v>0.8112804022559488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8793238169362755</v>
+        <v>0.8785732433588295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -2812,19 +2812,19 @@
         <v>328201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>308080</v>
+        <v>306333</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348371</v>
+        <v>347275</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.727931195066037</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6833033559112198</v>
+        <v>0.6794305017757001</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7726678274697141</v>
+        <v>0.7702359487950691</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>689</v>
@@ -2833,19 +2833,19 @@
         <v>754284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>728674</v>
+        <v>728291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>779216</v>
+        <v>780720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7907448712396481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7638964692761883</v>
+        <v>0.76349449959969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8168820963006493</v>
+        <v>0.8184587717474162</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>608315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>564288</v>
+        <v>565027</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>659397</v>
+        <v>655515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1787296850885466</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1657940373021864</v>
+        <v>0.1660112710744688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1937381062451309</v>
+        <v>0.192597592697522</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1094</v>
@@ -2958,19 +2958,19 @@
         <v>1183857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1129761</v>
+        <v>1124669</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1242373</v>
+        <v>1245317</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3348573398944887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3195560590015787</v>
+        <v>0.318115774689967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3514087456293784</v>
+        <v>0.3522415318350797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1659</v>
@@ -2979,19 +2979,19 @@
         <v>1792172</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1718258</v>
+        <v>1716242</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1873800</v>
+        <v>1872942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2582769694246999</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2476250295858274</v>
+        <v>0.2473344700098129</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2700406870237265</v>
+        <v>0.2699170412548176</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2795231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2744149</v>
+        <v>2748031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2839258</v>
+        <v>2838519</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8212703149114534</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8062618937548691</v>
+        <v>0.807402407302478</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8342059626978134</v>
+        <v>0.833988728925531</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2183</v>
@@ -3029,19 +3029,19 @@
         <v>2351550</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2293034</v>
+        <v>2290090</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2405646</v>
+        <v>2410738</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6651426601055113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6485912543706214</v>
+        <v>0.6477584681649202</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6804439409984208</v>
+        <v>0.6818842253100329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4805</v>
@@ -3050,19 +3050,19 @@
         <v>5146781</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5065153</v>
+        <v>5066011</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5220695</v>
+        <v>5222711</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7417230305753001</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7299593129762736</v>
+        <v>0.7300829587451817</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7523749704141727</v>
+        <v>0.7526655299901864</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>231146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>205010</v>
+        <v>202599</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>258363</v>
+        <v>262576</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2049169798284988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1817471798053235</v>
+        <v>0.1796095998389531</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2290462095204185</v>
+        <v>0.2327809404302049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>394</v>
@@ -3415,19 +3415,19 @@
         <v>424872</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>392881</v>
+        <v>389375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>457914</v>
+        <v>459547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3373171921575375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3119191101724229</v>
+        <v>0.3091358058386943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3635502117723324</v>
+        <v>0.3648465989961908</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>616</v>
@@ -3436,19 +3436,19 @@
         <v>656017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>609411</v>
+        <v>610230</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>705249</v>
+        <v>701489</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2747649639920016</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2552446744174756</v>
+        <v>0.255587684043495</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2953849691940271</v>
+        <v>0.2938103984300287</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>896851</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>869634</v>
+        <v>865421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>922987</v>
+        <v>925398</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7950830201715012</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7709537904795815</v>
+        <v>0.7672190595697952</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8182528201946766</v>
+        <v>0.8203904001610469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>794</v>
@@ -3486,19 +3486,19 @@
         <v>834689</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>801647</v>
+        <v>800014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>866680</v>
+        <v>870186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6626828078424625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6364497882276675</v>
+        <v>0.6351534010038092</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6880808898275771</v>
+        <v>0.6908641941613056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1638</v>
@@ -3507,19 +3507,19 @@
         <v>1731541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1682309</v>
+        <v>1686069</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1778147</v>
+        <v>1777328</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7252350360079984</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7046150308059729</v>
+        <v>0.7061896015699716</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7447553255825244</v>
+        <v>0.7444123159565053</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>165713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>139952</v>
+        <v>143886</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>187675</v>
+        <v>189671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1823378990379804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1539923200501244</v>
+        <v>0.1583214522515101</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2065031953378146</v>
+        <v>0.2086990742618831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>289</v>
@@ -3632,19 +3632,19 @@
         <v>315555</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>284483</v>
+        <v>283563</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>345415</v>
+        <v>345955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3135246731750341</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2826525499139887</v>
+        <v>0.281739078907183</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3431930829285438</v>
+        <v>0.3437297304381667</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>452</v>
@@ -3653,19 +3653,19 @@
         <v>481268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>445624</v>
+        <v>441614</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>521762</v>
+        <v>520313</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2512755287609245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2326654812706</v>
+        <v>0.2305717464202722</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2724177417846024</v>
+        <v>0.2716611657402778</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>743112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>721150</v>
+        <v>719154</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>768873</v>
+        <v>764939</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8176621009620196</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7934968046621852</v>
+        <v>0.7913009257381167</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8460076799498755</v>
+        <v>0.8416785477484889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>662</v>
@@ -3703,19 +3703,19 @@
         <v>690920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>661060</v>
+        <v>660520</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>721992</v>
+        <v>722912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6864753268249659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6568069170714562</v>
+        <v>0.6562702695618337</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7173474500860114</v>
+        <v>0.7182609210928174</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1380</v>
@@ -3724,19 +3724,19 @@
         <v>1434032</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1393538</v>
+        <v>1394987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1469676</v>
+        <v>1473686</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7487244712390756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7275822582153976</v>
+        <v>0.7283388342597221</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7673345187294</v>
+        <v>0.7694282535797278</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>143503</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122155</v>
+        <v>119837</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166703</v>
+        <v>167555</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1742049058679908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1482901582757004</v>
+        <v>0.145475690818308</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2023688821520453</v>
+        <v>0.2034029383628517</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>209</v>
@@ -3849,19 +3849,19 @@
         <v>227525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>201799</v>
+        <v>201088</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>254275</v>
+        <v>256745</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2950817647928788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2617160616186872</v>
+        <v>0.2607945074292357</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3297743446492402</v>
+        <v>0.3329767451320431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>344</v>
@@ -3870,19 +3870,19 @@
         <v>371028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336528</v>
+        <v>340102</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>406400</v>
+        <v>408815</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2326461536336024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2110135407660811</v>
+        <v>0.2132547042866031</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.254825159836121</v>
+        <v>0.256339892224689</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>680256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>657056</v>
+        <v>656204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>701604</v>
+        <v>703922</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8257950941320092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7976311178479546</v>
+        <v>0.7965970616371494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8517098417242992</v>
+        <v>0.8545243091816922</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>519</v>
@@ -3920,19 +3920,19 @@
         <v>543534</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>516784</v>
+        <v>514314</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>569260</v>
+        <v>569971</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7049182352071212</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.67022565535076</v>
+        <v>0.6670232548679577</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7382839383813129</v>
+        <v>0.7392054925707644</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1171</v>
@@ -3941,19 +3941,19 @@
         <v>1223790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188418</v>
+        <v>1186003</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1258290</v>
+        <v>1254716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7673538463663976</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7451748401638795</v>
+        <v>0.743660107775311</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7889864592339189</v>
+        <v>0.7867452957133969</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>97342</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79047</v>
+        <v>77871</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117369</v>
+        <v>114685</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1921089984957973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1560029980207872</v>
+        <v>0.153682267506666</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2316335293780518</v>
+        <v>0.2263360078805279</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>116</v>
@@ -4066,19 +4066,19 @@
         <v>128605</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109513</v>
+        <v>110229</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>148592</v>
+        <v>151945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2626216616044725</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2236337771845197</v>
+        <v>0.2250950225995613</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3034368373472782</v>
+        <v>0.3102834113994953</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -4087,19 +4087,19 @@
         <v>225947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196984</v>
+        <v>200153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>254575</v>
+        <v>254276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2267636874822063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1976956950295616</v>
+        <v>0.2008761476592344</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2554952811548221</v>
+        <v>0.2551953393213879</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>409359</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>389332</v>
+        <v>392016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>427654</v>
+        <v>428830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8078910015042027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7683664706219483</v>
+        <v>0.7736639921194739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8439970019792129</v>
+        <v>0.8463177324933345</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>339</v>
@@ -4137,19 +4137,19 @@
         <v>361093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341106</v>
+        <v>337753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>380185</v>
+        <v>379469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7373783383955276</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6965631626527219</v>
+        <v>0.689716588600504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7763662228154803</v>
+        <v>0.7749049774004385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>721</v>
@@ -4158,19 +4158,19 @@
         <v>770451</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>741823</v>
+        <v>742122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>799414</v>
+        <v>796245</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7732363125177937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.744504718845178</v>
+        <v>0.7448046606786122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8023043049704383</v>
+        <v>0.799123852340766</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>637704</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>590127</v>
+        <v>595503</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>683058</v>
+        <v>690016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1893823145600866</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1752531325835089</v>
+        <v>0.176849861065147</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2028514150868463</v>
+        <v>0.2049178674214007</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1008</v>
@@ -4283,19 +4283,19 @@
         <v>1096557</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1041493</v>
+        <v>1042901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1152669</v>
+        <v>1152018</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3109218766137398</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2953087745848592</v>
+        <v>0.2957081528826112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3268321792557158</v>
+        <v>0.3266474797170557</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1617</v>
@@ -4304,19 +4304,19 @@
         <v>1734261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1660309</v>
+        <v>1663014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1813053</v>
+        <v>1801247</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2515581427643249</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2408312320658378</v>
+        <v>0.2412237076789682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2629871302692041</v>
+        <v>0.2612746532004575</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2729578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2684224</v>
+        <v>2677266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2777155</v>
+        <v>2771779</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8106176854399134</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7971485849131537</v>
+        <v>0.7950821325785992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8247468674164909</v>
+        <v>0.823150138934853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2314</v>
@@ -4354,19 +4354,19 @@
         <v>2430235</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2374123</v>
+        <v>2374774</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2485299</v>
+        <v>2483891</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6890781233862602</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6731678207442842</v>
+        <v>0.6733525202829443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7046912254151408</v>
+        <v>0.7042918471173888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4910</v>
@@ -4375,19 +4375,19 @@
         <v>5159814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5081022</v>
+        <v>5092828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5233766</v>
+        <v>5231061</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7484418572356751</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7370128697307955</v>
+        <v>0.7387253467995427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7591687679341619</v>
+        <v>0.7587762923210321</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>149887</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128402</v>
+        <v>127203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171378</v>
+        <v>170363</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3005321974477088</v>
+        <v>0.3005321974477087</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2574526186809692</v>
+        <v>0.2550495758305856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3436235659260669</v>
+        <v>0.3415869654403649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>457</v>
@@ -4740,19 +4740,19 @@
         <v>294090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269660</v>
+        <v>270656</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>315958</v>
+        <v>317132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4716158641532506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4324377670650518</v>
+        <v>0.4340351145212107</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5066847846760039</v>
+        <v>0.5085663319770691</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>613</v>
@@ -4761,19 +4761,19 @@
         <v>443978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>411951</v>
+        <v>414578</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>472030</v>
+        <v>477634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3955892543134044</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3670526881033217</v>
+        <v>0.3693939195716245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4205840264990135</v>
+        <v>0.4255773640808462</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>348852</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327361</v>
+        <v>328376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>370337</v>
+        <v>371536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6994678025522912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6563764340739333</v>
+        <v>0.6584130345596353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.742547381319031</v>
+        <v>0.7449504241694144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>404</v>
@@ -4811,19 +4811,19 @@
         <v>329490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307622</v>
+        <v>306448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353920</v>
+        <v>352924</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5283841358467491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4933152153239961</v>
+        <v>0.4914336680229309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5675622329349481</v>
+        <v>0.5659648854787893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -4832,19 +4832,19 @@
         <v>678342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>650290</v>
+        <v>644686</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>710369</v>
+        <v>707742</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6044107456865958</v>
+        <v>0.6044107456865957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5794159735009865</v>
+        <v>0.5744226359191539</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6329473118966784</v>
+        <v>0.6306060804283756</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>230260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203152</v>
+        <v>203430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>257392</v>
+        <v>259433</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2398197438004942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2115869868341891</v>
+        <v>0.2118755016681614</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2680788786655579</v>
+        <v>0.2702043689245268</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>737</v>
@@ -4957,19 +4957,19 @@
         <v>455379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>427445</v>
+        <v>427653</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>484025</v>
+        <v>484315</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4083220131487612</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3832739841209487</v>
+        <v>0.3834606641966919</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4340073041377578</v>
+        <v>0.434267232668395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>996</v>
@@ -4978,19 +4978,19 @@
         <v>685639</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>644965</v>
+        <v>641805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>726244</v>
+        <v>726671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3303676222242263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3107692697529085</v>
+        <v>0.3092464648033796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3499324216880799</v>
+        <v>0.3501383575061314</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>729877</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>702745</v>
+        <v>700704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>756985</v>
+        <v>756707</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7601802561995059</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7319211213344423</v>
+        <v>0.7297956310754732</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7884130131658111</v>
+        <v>0.7881244983318387</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>869</v>
@@ -5028,19 +5028,19 @@
         <v>659867</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>631221</v>
+        <v>630931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>687801</v>
+        <v>687593</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.591677986851239</v>
+        <v>0.5916779868512391</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5659926958622421</v>
+        <v>0.5657327673316048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6167260158790514</v>
+        <v>0.616539335803308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1520</v>
@@ -5049,19 +5049,19 @@
         <v>1389744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1349139</v>
+        <v>1348712</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1430418</v>
+        <v>1433578</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6696323777757736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6500675783119194</v>
+        <v>0.6498616424938685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6892307302470914</v>
+        <v>0.6907535351966204</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>226195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198220</v>
+        <v>198471</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>256157</v>
+        <v>257001</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.216148421472021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1894165321977897</v>
+        <v>0.1896557142694416</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2447803385457944</v>
+        <v>0.2455860558377094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>615</v>
@@ -5174,19 +5174,19 @@
         <v>381043</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>354117</v>
+        <v>355024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>406548</v>
+        <v>408033</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3637149195616083</v>
+        <v>0.3637149195616084</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3380131383107073</v>
+        <v>0.3388795716597694</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3880595868993754</v>
+        <v>0.3894772327923939</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>854</v>
@@ -5195,19 +5195,19 @@
         <v>607238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>565961</v>
+        <v>565417</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>650590</v>
+        <v>643606</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2899726244539349</v>
+        <v>0.289972624453935</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2702620415429834</v>
+        <v>0.2700019969780434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3106744441377009</v>
+        <v>0.3073395817835456</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>820284</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>790322</v>
+        <v>789478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>848259</v>
+        <v>848008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7838515785279789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7552196614542056</v>
+        <v>0.7544139441622906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8105834678022102</v>
+        <v>0.8103442857305585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>901</v>
@@ -5245,19 +5245,19 @@
         <v>666599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641094</v>
+        <v>639609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>693525</v>
+        <v>692618</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6362850804383916</v>
+        <v>0.6362850804383918</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6119404131006246</v>
+        <v>0.610522767207606</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6619868616892924</v>
+        <v>0.6611204283402305</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1691</v>
@@ -5266,19 +5266,19 @@
         <v>1486883</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1443531</v>
+        <v>1450515</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1528160</v>
+        <v>1528704</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.710027375546065</v>
+        <v>0.7100273755460652</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6893255558622989</v>
+        <v>0.6926604182164545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7297379584570164</v>
+        <v>0.7299980030219567</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>226540</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196069</v>
+        <v>201010</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255910</v>
+        <v>259436</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2321280123304038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2009049029318142</v>
+        <v>0.2059683225226897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.262221787972288</v>
+        <v>0.2658353754429517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>477</v>
@@ -5391,19 +5391,19 @@
         <v>309327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>286690</v>
+        <v>284796</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>334847</v>
+        <v>335526</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3404276026264512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3155146691696449</v>
+        <v>0.3134303653633103</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3685133788671617</v>
+        <v>0.3692606674171006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>703</v>
@@ -5412,19 +5412,19 @@
         <v>535867</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>500485</v>
+        <v>494497</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>577167</v>
+        <v>577627</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2843444327298398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2655696473505192</v>
+        <v>0.262392447512645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3062591164288839</v>
+        <v>0.3065029355698853</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>749389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>720019</v>
+        <v>716493</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>779860</v>
+        <v>774919</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7678719876695963</v>
+        <v>0.7678719876695962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7377782120277125</v>
+        <v>0.7341646245570483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7990950970681858</v>
+        <v>0.7940316774773102</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>844</v>
@@ -5462,19 +5462,19 @@
         <v>599315</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>573795</v>
+        <v>573116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>621952</v>
+        <v>623846</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6595723973735489</v>
+        <v>0.6595723973735488</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6314866211328383</v>
+        <v>0.6307393325828995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6844853308303552</v>
+        <v>0.6865696346366899</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1565</v>
@@ -5483,19 +5483,19 @@
         <v>1348704</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1307404</v>
+        <v>1306944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1384086</v>
+        <v>1390074</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7156555672701602</v>
+        <v>0.7156555672701601</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6937408835711162</v>
+        <v>0.6934970644301146</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7344303526494811</v>
+        <v>0.7376075524873549</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>832882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>786249</v>
+        <v>779412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>888969</v>
+        <v>888562</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2392456906589568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2258502374533503</v>
+        <v>0.2238863635176495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2553567557648134</v>
+        <v>0.2552396677691808</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2286</v>
@@ -5608,19 +5608,19 @@
         <v>1439840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1388955</v>
+        <v>1393986</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1494378</v>
+        <v>1496861</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3896608198979414</v>
+        <v>0.3896608198979413</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3758899086207815</v>
+        <v>0.3772514291723682</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.404420378545744</v>
+        <v>0.4050924878823347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3166</v>
@@ -5629,19 +5629,19 @@
         <v>2272722</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2198136</v>
+        <v>2201772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2344914</v>
+        <v>2350673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3166941176686726</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3063008954173989</v>
+        <v>0.3068075831676401</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3267537833584145</v>
+        <v>0.3275561771631341</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2648402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2592315</v>
+        <v>2592722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2695035</v>
+        <v>2701872</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7607543093410432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7446432442351868</v>
+        <v>0.7447603322308193</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7741497625466499</v>
+        <v>0.7761136364823505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3018</v>
@@ -5679,19 +5679,19 @@
         <v>2255270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2200732</v>
+        <v>2198249</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2306155</v>
+        <v>2301124</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6103391801020586</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.595579621454256</v>
+        <v>0.5949075121176651</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6241100913792185</v>
+        <v>0.6227485708276317</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5479</v>
@@ -5700,19 +5700,19 @@
         <v>4903673</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4831481</v>
+        <v>4825722</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4978259</v>
+        <v>4974623</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6833058823313274</v>
+        <v>0.6833058823313275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6732462166415855</v>
+        <v>0.672443822836866</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6936991045826012</v>
+        <v>0.6931924168323599</v>
       </c>
     </row>
     <row r="18">
